--- a/questionnaires/AWSVendorInsightsSecuritySelfAssessment_2022-11-30.xlsx
+++ b/questionnaires/AWSVendorInsightsSecuritySelfAssessment_2022-11-30.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeha\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeha\source\proxylity\policies-and-procedures\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C0A271-6D95-4E05-BA69-603D158BEC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF484CC1-E4D0-42F5-B155-61E6361861DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A:$G</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="609">
   <si>
     <t>Vendor Insights Self Assessment V2022-11-30</t>
   </si>
@@ -1549,27 +1549,9 @@
     <t>Yes.</t>
   </si>
   <si>
-    <t>MFA is required via Cognito</t>
-  </si>
-  <si>
-    <t>Lockout is provided via Cognito</t>
-  </si>
-  <si>
-    <t>Password complexity configured in Cognito</t>
-  </si>
-  <si>
-    <t>Encryption is provided by HTTPS via Cognito</t>
-  </si>
-  <si>
-    <t>Secrets Manager is used to hold secrets for external APIs (e.g. Nuget.org), but not for user credentials or other purposes.</t>
-  </si>
-  <si>
     <t>No credentials appear in code.</t>
   </si>
   <si>
-    <t>Customers sign-in via Cognito using credentials for our service directly. SSO is planned but not yet implemented.</t>
-  </si>
-  <si>
     <t>AWS Console login with two factor authentication required.</t>
   </si>
   <si>
@@ -1588,12 +1570,6 @@
     <t>Access policies are reviewed at least quarterly.</t>
   </si>
   <si>
-    <t>Customers may create accounts and grant permission to access the application</t>
-  </si>
-  <si>
-    <t>Customer configuration is logically segmented by account identifier.</t>
-  </si>
-  <si>
     <t>Employee access is fully removed on termination.  Upon a role change, employee access is reset to none and reestablished for the new role.</t>
   </si>
   <si>
@@ -1663,15 +1639,6 @@
     <t xml:space="preserve">Continuity procedures include the design of the system to maintain function in region-level loss scenarios. New and replacement region provisioning is automated to enure customer activiity can continue. </t>
   </si>
   <si>
-    <t>Operational continuity procedures are defined and documented, covering employee access and tools, financial systems and product delivery.</t>
-  </si>
-  <si>
-    <t>Loss of access and system recovery testing is performed regualarly (at least quarterly).</t>
-  </si>
-  <si>
-    <t>Customer workload is distributed regionally and by availability zone (three per region) evenly due to it's sessionless/stateless nature and infrastructure design.</t>
-  </si>
-  <si>
     <t>Our year-to-date availability for 2025 as of the end of November is in excess of 99.995%.</t>
   </si>
   <si>
@@ -1687,19 +1654,7 @@
     <t>The general RPO is 0 hours (no data loss) with caveats for customer induced data loss (self delete).</t>
   </si>
   <si>
-    <t>Access to our system is provisioned via AWS Marketplace subscriptions, and we require no other data.  Customers may choose to share additional contact information (email, phone) to facilitate support and other inquiries.  Once access is available, customers may configure our system which may include entering "allowed IPs" (internet protocol addresses), and ARNs of resources for integration in their AWS environment.</t>
-  </si>
-  <si>
     <t>Currently we store data in the United States in `us-west-2`, `us-east-1` and Ireland in `eu-west-1`.</t>
-  </si>
-  <si>
-    <t>Our policy requires following the law and compliance requirements where we operate.</t>
-  </si>
-  <si>
-    <t>We maintain a list of requirements and our compliance status in electronic form.</t>
-  </si>
-  <si>
-    <t>Our policy is to meet our compliance obligations without exceptions, with allowance for the time and effort needed.</t>
   </si>
   <si>
     <t>The BIA evaluates functional, technical, and dependency-related impacts associated with service disruption across:
@@ -1710,18 +1665,6 @@
 - AWS Marketplace entitlement and revenue capture</t>
   </si>
   <si>
-    <t>See note:</t>
-  </si>
-  <si>
-    <t>United States and Ireland</t>
-  </si>
-  <si>
-    <t>The only customer data presented by our application is related to the configuration of services and not people.  Customer data isn't retained or distributed knowingly by our system.</t>
-  </si>
-  <si>
-    <t>We have no third-party vendors with access to customer data (other than AWS).  We don't anticipate having such relationships.</t>
-  </si>
-  <si>
     <t>Our applications deliever data over secure protocols. However, customers may configure and use our service for unsecure protocols (general UDP) or securely tunneled (WireGuard).</t>
   </si>
   <si>
@@ -1731,18 +1674,9 @@
     <t>Least-privilege accounts are setup for users and services that do not allow access to KMS keys except where required to deliver our service.</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer configuration data (all we store) is replicated over 3 AWS regions. </t>
-  </si>
-  <si>
-    <t>Access to customer configuration data is restricted based on logical separation by AWS account ID and IAM permissions.</t>
-  </si>
-  <si>
     <t>We sell via AWS Marketplace and hold no such information.</t>
   </si>
   <si>
-    <t>There is only one classification since we don't store anything other than information related to the configuration of our service. We treat that data as confidential.</t>
-  </si>
-  <si>
     <t>Customer data is logically segmented based on AWS account ID.</t>
   </si>
   <si>
@@ -1764,42 +1698,21 @@
     <t>Our only "systems" in this sense are EC2 instances which are built from standard AWS AMIs one demain (scaling, spot instance lifecycle).  We don't inventory the contents of those AMIs.  We dynamically deploy only known software to these systems using CodeDeploy.</t>
   </si>
   <si>
-    <t>We update dependencies, runtimes and EC2 systems on a much more frequent basis than monthly.</t>
-  </si>
-  <si>
     <t>We use Windows Defender on employee laptops, but don't use endpoint protection on EC2s because of their highly transitory nature.</t>
   </si>
   <si>
-    <t>Devices provided to employees are replaced rather than repaired.</t>
-  </si>
-  <si>
     <t>No direct access to our system is provided; it's all via least-priviledge IAM roles used with required TFA.</t>
   </si>
   <si>
-    <t>No access to customer data is provided by default.</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>No such vendors at this time, but such assessments are required.</t>
-  </si>
-  <si>
     <t>Risk assessments are performed at least quarterly.</t>
   </si>
   <si>
-    <t>The risk assessment process is engaged when any material business change is proposed, with detailed benefit and risk metrics documented and evaluated by management before implementation.</t>
-  </si>
-  <si>
     <t>Documented disclosure process on public website.</t>
   </si>
   <si>
     <t>Security configurations are automatically evaluated when changes are made via AWS Config and Security Hub.  Manual security inspections and reviews are performed at least quarterly.</t>
   </si>
   <si>
-    <t>All infrastructure and system configurations are maintained as Infrastructure as Code in CloudFormation templates under version control,</t>
-  </si>
-  <si>
     <t>Logs of internal service configuration changes and customer configuration changes are retained for three years.  Version control records of IaC are maintained indefinately.</t>
   </si>
   <si>
@@ -1812,19 +1725,738 @@
     <t>We don't notify customers or the public until ongoing risk of exploitation has been remeadiated, unless remediation requires customer engagement.</t>
   </si>
   <si>
-    <t>No current subcontractors.  AWS notification systems.</t>
-  </si>
-  <si>
     <t>We have limited log monitoring in place and are working to expand it to detect a wider range of potentially anomolous behavior indicated in logs.</t>
   </si>
   <si>
-    <t>Within the scope of their use and not to the detriment of other customers.</t>
-  </si>
-  <si>
-    <t>The service is designed to be substantially robust so our recovery plan largely details the worst-case (and very unlikely) scenario of needing to do a full rebuild from scratch. Recovery of access to source control should GitHub become unavailable, as well as accounting and banking are also covered.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Activities are documented and used in the risk assessment process. </t>
+    <t>United States (us-west-2 and us-east-1) and Ireland (eu-west-1)</t>
+  </si>
+  <si>
+    <t>Use of our product involves transmission of data to and from the United States and Ireland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: We have no third-party vendors with access to customer data (other than AWS).  We don't anticipate having such relationships.
+# **Proxylity LLC — Vendor and Third-Party Risk Management Policy**
+**Version:** 1.0  
+**Approved By:** Lee Harding  
+**Last Updated:** 2025-12-05  
+**Classification:** Confidential — Internal Use Only
+---
+## **1. Purpose**
+This policy defines Proxylity LLC's approach to identifying, assessing, and managing risks associated with third-party vendors, service providers, and business partners. The policy ensures that vendor relationships do not compromise the security, availability, or integrity of Proxylity's platform or customer data.
+---
+## **2. Scope**
+This policy applies to:
+- All third-party vendors, service providers, and contractors
+- Cloud infrastructure providers (AWS)
+- Software development tools and platforms (GitHub)
+- Any external party with access to Proxylity systems, data, or operations
+- Future vendor relationships as Proxylity grows
+**Exclusions:** This policy does not apply to customers or end users of Proxylity services.
+---
+## **3. Definitions**
+| Term | Definition |
+|------|------------|
+| **Vendor** | Any third party that provides goods, services, or access to systems used by Proxylity |
+| **Critical Vendor** | A vendor whose failure or unavailability would significantly impact Proxylity's ability to deliver services |
+| **Sub-processor** | A vendor that processes customer data on behalf of Proxylity |
+| **Vendor Risk Assessment** | A structured evaluation of a vendor's security practices, reliability, and business stability |
+---
+## **4. Roles and Responsibilities**
+| Role | Responsibility |
+|------|-----------------|
+| **Vendor Risk Owner** | Identifies vendors requiring assessment; conducts initial and periodic risk assessments; recommends approval or rejection |
+| **Vendor Risk Approver** | Approves new vendor relationships; approves risk acceptances for vendor-related risks; authorizes exceptions |
+| **Vendor Relationship Manager** | Manages ongoing vendor relationship; monitors vendor performance; escalates issues |
+**Current Staffing:** During the startup phase, all roles are held by Lee Harding (Founder/CEO). As the organization grows, these roles will be distributed to appropriate team members.
+---
+## **5. Vendor Classification**
+Vendors are classified based on their criticality and data access:
+### **5.1 Criticality Levels**
+| Level | Definition | Examples | Assessment Frequency |
+|-------|-----------|----------|---------------------|
+| **Critical** | Vendor failure would cause service outage or significant business disruption | AWS (infrastructure), GitHub (development) | Annually + upon significant changes |
+| **Important** | Vendor failure would cause operational disruption but service could continue | Email providers, monitoring tools | Annually |
+| **Standard** | Vendor failure would cause inconvenience but minimal business impact | Office software, documentation tools | Upon onboarding; every 2 years |
+### **5.2 Data Access Levels**
+| Level | Definition | Examples | Additional Requirements |
+|-------|-----------|----------|------------------------|
+| **Customer Data Access** | Vendor has access to customer configuration data or could access customer traffic | AWS (infrastructure provider) | Enhanced assessment; contractual data protection requirements |
+| **Internal Data Access** | Vendor has access to Proxylity internal systems or data | GitHub (source code), accounting software | Standard assessment; confidentiality requirements |
+| **No Data Access** | Vendor provides services without access to Proxylity data | Hardware suppliers, general contractors | Basic assessment |
+---
+## **6. Current Vendor Inventory**
+Proxylity maintains a vendor inventory documenting all third-party relationships:
+| Vendor | Service | Criticality | Data Access | Last Assessed | Next Review |
+|--------|---------|------------|-------------|---------------|-------------|
+| **Amazon Web Services (AWS)** | Cloud infrastructure (compute, storage, networking, database) | Critical | Customer Data Access | 2025-12-05 | 2026-12-05 |
+| **GitHub** | Source code repository, CI/CD integration | Critical | Internal Data Access | 2025-12-05 | 2026-12-05 |
+| **AWS Marketplace** | Billing and subscription management | Important | No Data Access (merchant of record) | 2025-12-05 | 2026-12-05 |
+**Note:** This inventory is updated whenever vendors are added, removed, or change in scope.
+---
+## **7. Vendor Assessment Process**
+### **7.1 New Vendor Assessment**
+Before engaging a new vendor:
+1. **Identify Need:** Document business need and alternatives considered
+2. **Classify Vendor:** Determine criticality level and data access level
+3. **Conduct Assessment:** Evaluate vendor using appropriate assessment criteria (Section 8)
+4. **Document Findings:** Record assessment results and any identified risks
+5. **Approve or Reject:** Vendor Risk Approver reviews and decides
+6. **Onboard:** If approved, establish relationship with appropriate controls
+7. **Add to Inventory:** Update vendor inventory with new vendor details
+### **7.2 Periodic Vendor Review**
+Existing vendors are reviewed according to their criticality:
+- **Critical Vendors:** Annually and upon significant changes
+- **Important Vendors:** Annually
+- **Standard Vendors:** Every 2 years
+Periodic reviews include:
+- Verification of continued business need
+- Review of vendor security posture and any incidents
+- Assessment of vendor performance and reliability
+- Update to risk assessment as needed
+### **7.3 Triggered Assessments**
+Additional assessments are conducted when:
+- Vendor experiences a security incident or data breach
+- Vendor changes ownership or undergoes significant organizational change
+- Vendor's services or scope changes significantly
+- Industry reports or news indicate concerns about vendor
+- Contract renewal is approaching
+---
+## **8. Vendor Assessment Criteria**
+### **8.1 Security Practices**
+| Criterion | Assessment Questions |
+|----------|---------------------|
+| **Access Control** | Does the vendor implement strong authentication? Is MFA required? How is access managed and revoked? |
+| **Encryption** | Is data encrypted in transit and at rest? What encryption standards are used? |
+| **Incident Response** | Does the vendor have an incident response plan? How quickly will they notify us of incidents? |
+| **Compliance** | Does the vendor hold relevant certifications (SOC 2, ISO 27001)? Are they audited? |
+| **Vulnerability Management** | How does the vendor manage vulnerabilities and patching? |
+### **8.2 Business Stability**
+| Criterion | Assessment Questions |
+|----------|---------------------|
+| **Financial Health** | Is the vendor financially stable? Any concerns about viability? |
+| **Business Continuity** | Does the vendor have business continuity and disaster recovery plans? |
+| **Service Level** | What SLAs does the vendor offer? What is their historical uptime? |
+| **Support** | What support channels are available? What are response times? |
+### **8.3 Contractual Protections**
+| Criterion | Assessment Questions |
+|----------|---------------------|
+| **Data Protection** | Are there contractual requirements for data handling and protection? |
+| **Liability** | What liability does the vendor accept for failures or breaches? |
+| **Termination** | What are the termination terms? Can we retrieve our data? |
+| **Audit Rights** | Do we have the right to audit the vendor's security practices? |
+---
+## **9. Critical Vendor Risk Mitigations**
+### **9.1 Amazon Web Services (AWS)**
+**Risk:** AWS is a single point of failure for all infrastructure; AWS account compromise would be catastrophic.
+**Mitigations:**
+- Multi-region deployment across us-west-2, us-east-1, eu-west-1
+- Architecture designed to tolerate single-region failure
+- AWS account secured with MFA on root and all IAM users
+- Least-privilege IAM policies for all services and users
+- AWS Health Dashboard monitoring for service issues
+- Reliance on AWS SOC 2, ISO 27001, and other certifications
+- AWS shared responsibility model understood and documented
+**Residual Risk:** Accepted. AWS is industry-leading infrastructure; alternatives would not materially reduce risk and would significantly increase operational complexity.
+### **9.2 GitHub**
+**Risk:** GitHub unavailability would block software development and deployment; GitHub compromise could expose source code.
+**Mitigations:**
+- Repository mirrors maintained in separate location
+- Tested cut-over plan for source control recovery if GitHub becomes unavailable
+- MFA required for all GitHub accounts
+- Branch protection rules enforced
+- Dependabot alerts enabled for vulnerability detection
+- No secrets stored in repositories
+**Residual Risk:** Accepted. GitHub is industry-leading for source control; mitigations reduce impact of unavailability to acceptable levels.
+### **9.3 AWS Marketplace**
+**Risk:** AWS Marketplace unavailability would block new customer acquisitions; issues could impact billing.
+**Mitigations:**
+- AWS Marketplace serves as merchant of record, transferring payment processing risk
+- No customer payment data stored by Proxylity
+- Existing customers continue to operate during Marketplace outages
+- AWS Marketplace SLA provides availability commitments
+**Residual Risk:** Accepted. Impact limited to new sales; operational service continues.
+---
+## **10. Vendor Data Protection Requirements**
+### **10.1 Customer Data Access**
+Vendors with access to customer data must:
+- Maintain security practices equivalent to or exceeding Proxylity's standards
+- Encrypt data in transit and at rest
+- Implement access controls limiting data access to authorized personnel
+- Notify Proxylity promptly (within 24 hours) of any security incident affecting our data
+- Not share data with sub-processors without Proxylity's written consent
+- Delete or return data upon termination of the relationship
+**Current Status:** Only AWS has access to customer configuration data. AWS meets all requirements through their published security practices, certifications, and shared responsibility model.
+### **10.2 Internal Data Access**
+Vendors with access to internal data (e.g., source code) must:
+- Maintain reasonable security practices
+- Implement access controls
+- Notify Proxylity of security incidents affecting our data
+### **10.3 No Data Access**
+Vendors without data access have no specific data protection requirements beyond standard business practices.
+---
+## **11. Vendor Incident Response**
+### **11.1 Vendor Incident Notification**
+If a vendor experiences a security incident:
+1. **Receive Notification:** Vendor notifies Proxylity of incident
+2. **Assess Impact:** Determine if Proxylity data or services are affected
+3. **Activate IRP:** If customer data or services are impacted, activate Proxylity Incident Response Plan
+4. **Document:** Record incident details, vendor response, and impact assessment
+5. **Review Relationship:** Assess whether vendor relationship should continue
+### **11.2 Vendor Incident SLAs**
+- **Critical Vendors (Customer Data Access):** Notification within 24 hours of incident discovery
+- **Important/Standard Vendors:** Notification within 72 hours of incident discovery
+---
+## **12. Vendor Termination**
+### **12.1 Planned Termination**
+When ending a vendor relationship:
+1. **Notification:** Provide notice per contract terms
+2. **Data Retrieval:** Export or verify deletion of Proxylity data held by vendor
+3. **Access Revocation:** Remove vendor access to Proxylity systems
+4. **Documentation:** Document termination and data handling
+5. **Update Inventory:** Remove vendor from vendor inventory
+### **12.2 Emergency Termination**
+If immediate termination is required (e.g., security breach, unacceptable conduct):
+1. **Revoke Access:** Immediately revoke vendor access to all Proxylity systems
+2. **Secure Data:** Assess and secure any data held by vendor
+3. **Document:** Record reason for emergency termination
+4. **Legal Review:** Engage legal counsel if contract breach or dispute is likely
+5. **Transition:** Activate contingency plan for vendor services
+---
+## **13. Exception and Override**
+Exceptions to this policy require:
+- Documented business justification
+- Risk assessment of the exception
+- Approval by Vendor Risk Approver (CEO/Founder)
+- Time-limited duration with review date
+- Documentation in vendor file
+---
+## **14. Policy Review**
+This policy is reviewed:
+- **Annually** at minimum
+- **Upon significant vendor changes** (new critical vendor, vendor incident)
+- **When regulatory requirements change**
+Updates require approval by CEO/Founder.
+---
+## **Appendix A: Vendor Assessment Checklist**
+Use this checklist when assessing new vendors:
+**Security:**
+- [ ] Vendor has documented security policies
+- [ ] Vendor implements access controls and MFA
+- [ ] Vendor encrypts data in transit and at rest
+- [ ] Vendor has incident response procedures
+- [ ] Vendor holds relevant certifications (SOC 2, ISO 27001) or can demonstrate equivalent controls
+**Business:**
+- [ ] Vendor is financially stable
+- [ ] Vendor has business continuity plans
+- [ ] Vendor offers acceptable SLAs
+- [ ] Vendor has adequate support channels
+**Contractual:**
+- [ ] Data protection terms are acceptable
+- [ ] Termination terms allow data retrieval
+- [ ] Liability terms are reasonable
+- [ ] Incident notification requirements are included
+**Risk:**
+- [ ] Identified risks are documented
+- [ ] Mitigations are defined for identified risks
+- [ ] Residual risk is acceptable
+- [ ] Risk is added to Risk Register if HIGH or CRITICAL
+---
+## **Appendix B: Vendor Risk Assessment Template**
+```
+VENDOR RISK ASSESSMENT
+Vendor Name: _______________
+Service Provided: _______________
+Assessment Date: _______________
+Assessor: _______________
+CLASSIFICATION
+Criticality Level: [ ] Critical  [ ] Important  [ ] Standard
+Data Access Level: [ ] Customer Data  [ ] Internal Data  [ ] No Data
+SECURITY ASSESSMENT
+Access Control: [ ] Adequate  [ ] Concerns  [ ] Inadequate
+Notes: _______________
+Encryption: [ ] Adequate  [ ] Concerns  [ ] Inadequate
+Notes: _______________
+Incident Response: [ ] Adequate  [ ] Concerns  [ ] Inadequate
+Notes: _______________
+Compliance/Certifications: _______________
+BUSINESS ASSESSMENT
+Financial Stability: [ ] Stable  [ ] Concerns  [ ] Unstable
+Business Continuity: [ ] Documented  [ ] Unknown  [ ] None
+SLA Offered: _______________
+IDENTIFIED RISKS
+1. _______________
+2. _______________
+3. _______________
+MITIGATIONS
+1. _______________
+2. _______________
+3. _______________
+RECOMMENDATION
+[ ] Approve  [ ] Approve with Conditions  [ ] Reject
+Conditions (if applicable): _______________
+APPROVAL
+Approved By: _______________
+Date: _______________
+```
+---
+**Approved By:** Lee Harding  
+**Date:** 2025-12-05
+</t>
+  </si>
+  <si>
+    <t>Customer configuration data (all we store) is replicated over 3 AWS regions with Point-in-Time recovery enabled.</t>
+  </si>
+  <si>
+    <t>Access to customer configuration data is restricted by RBAC rules based on logical separation by AWS account ID, and by IAM permissions.</t>
+  </si>
+  <si>
+    <t>Amazon Web Services</t>
+  </si>
+  <si>
+    <t>Email address and name are optional.  User IDs are randomly generated strings automatically assigned at the time of account provisioning when an AWS Marketplace Subscription is created.</t>
+  </si>
+  <si>
+    <t>Lockout is provided via Cognito, as far as I can tell there is not authoratative documentation of the number of tries that results in lockout.</t>
+  </si>
+  <si>
+    <t>MFA is required via Cognito and we support authenticator applications (not email, not sms).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password complexity configured in Cognito, and includes:
+"MinimumLength": 12,
+"RequireLowercase": true,
+"RequireNumbers": true,
+"RequireSymbols": true,
+"RequireUppercase": true
+</t>
+  </si>
+  <si>
+    <t>Encryption in transit is provided by HTTPS via Cognito, and passwords are encrypted within Cognito storage.</t>
+  </si>
+  <si>
+    <t>Secrets Manager is used to hold secrets. Literal secrets are only used for external APIs that require them (e.g. GitHub package hosting). Employee access credentials are never stored in our systems, and all service access is via IAM roles.</t>
+  </si>
+  <si>
+    <t>SSO is not currently supported. Customers may sign-in via Cognito using credentials for our service directly. SSO is planned but not yet implemented.</t>
+  </si>
+  <si>
+    <t>Customers may create accounts by subscribing in AWS Marketplace, and grant permission to access the application to specific users.</t>
+  </si>
+  <si>
+    <t>Customer configuration is logically segmented by account identifier, including users.</t>
+  </si>
+  <si>
+    <t>We maintain multiple application environments to support the software development and testing process.</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity has policies and procedures to ensure compliance with applicable legislative, regulatory, and contractual requirements.
+Details:
+1. Information Security Policy - Establishes our approach to protecting data confidentiality, integrity, and availability while supporting regulatory compliance. Includes:
+- Data classification framework (Public, Internal, Confidential)
+- Access controls based on least privilege principles
+- Compliance section explicitly stating all compliance requirements mandated by contract or law will be followed
+- Annual policy review process triggered by changes in regulatory obligations
+2. Risk Management Policy - Defines systematic risk identification and treatment, including:
+- Regulatory and compliance risks within scope
+- Triggered assessments for regulatory or compliance changes (new requirements, changes to industry standards, customer contract changes)
+- Risk treatment strategies that include compliance considerations
+- Quarterly risk reviews that assess compliance gaps
+3. Data Retention and Deletion Policy - Ensures compliance with legal and regulatory obligations through:
+- Defined retention periods aligned with legal requirements (e.g., employment records retained per labor law and tax obligations)
+- Data subject request processing within 30 days (GDPR/CCPA compliance)
+- Legal hold procedures for litigation or government investigations
+- Documented deletion procedures with verification and audit trails
+4. Vendor and Third-Party Risk Management Policy - Ensures third-party relationships comply with contractual and regulatory requirements through structured vendor assessments.</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity conducts audits to track outstanding requirements.
+Details:
+1. Quarterly Risk Reviews - Formal risk assessments are conducted at least once per quarter (January, April, July, October) that include:
+- Review of compliance gaps and outstanding requirements
+- Assessment of regulatory environment changes
+- Updated Risk Register with action items and timelines
+- Documented results with timestamps and approval
+2. Risk Register - Maintains a documented record of:
+- All identified risks including compliance-related items
+- Treatment status and mitigation action items
+- Risk acceptance decisions with business justification
+- Open items tracked until resolution
+3. Triggered Assessments - Additional reviews are conducted immediately upon:
+- New regulatory requirements
+- Changes to industry standards or best practices
+- Changes to customer contracts or SLAs
+- Security advisories or vulnerability disclosures
+4. Access Reviews - IAM permissions and access rights are reviewed quarterly to ensure compliance with access control requirements.
+5. Annual Policy Review - All policies are reviewed at least annually and upon significant changes in regulatory obligations.</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity has a formal process to handle exceptions or deviations from compliance requirements.
+Details:
+Risk Acceptance Process - Exceptions and deviations are handled through our documented risk acceptance framework:
+1. Formal Approval Authority by Risk Level:
+CRITICAL risks: CEO/Founder approval required; documented in Risk Register
+HIGH risks: CEO/Founder approval required; documented in Risk Register
+MEDIUM risks: Risk Owner recommends; documented in Risk Register
+LOW risks: Risk Owner documents; no approval required
+2. Required Documentation:
+Business justification explaining why the exception is acceptable given current resources, priorities, and constraints
+Risk scoring (Impact × Likelihood assessment)
+Documented in Risk Register with timestamp and approval
+3. Treatment Options for Deviations:
+ACCEPT: Acknowledge the risk and consciously proceed without mitigation (requires documented business justification)
+REDUCE: Implement compensating controls to decrease likelihood or impact
+TRANSFER: Shift risk to third party through contracts or insurance
+AVOID: Change plans to eliminate the risk entirely (requires CEO approval as it impacts business strategy)
+4. Ongoing Monitoring:
+Accepted exceptions are tracked in the Risk Register
+Quarterly reviews reassess whether acceptance remains appropriate
+Changes in risk environment may trigger re-evaluation</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity has developed and maintains formal procedures for business continuity.
+Details:
+1. Multi-Region Platform Resilience:
+Deployed across three AWS regions (us-west-2, us-east-1, eu-west-1)
+Architecture designed to tolerate single-region failure without service interruption
+Customer workloads distributed across availability zones within each region
+Automated failover capabilities
+2. Defined Recovery Objectives:
+Recovery Time Objective (RTO): 2 hours for full system rebuild in worst-case scenario
+Recovery Point Objective (RPO): 0 hours (no data loss) for customer configuration data
+Availability Target: 99.9% uptime (≤44 minutes downtime per month)
+3. Backup and Recovery Procedures:
+Customer configuration data replicated across three AWS regions
+DynamoDB point-in-time recovery enabled
+Internal corporate systems backed up with 30-day retention
+Recovery procedures documented and tested at least quarterly
+4. Continuity Testing:
+Failover exercised continuously through automated deployment processes
+Forced failover testing performed approximately monthly for specific scenarios
+Loss of access and system recovery testing performed at least quarterly
+5. Incident Response Integration:
+Formal Incident Response Plan with detection, containment, and recovery procedures
+Disaster recovery plans documented for worst-case scenarios
+Annual tabletop exercises and training</t>
+  </si>
+  <si>
+    <t>Recovery testing is performed regualarly (at least quarterly).</t>
+  </si>
+  <si>
+    <t>One buyer's load does not impact availability for another buyer. Proxylity UDP Gateway is built on a serverless, multi-tenant architecture using AWS Lambda and DynamoDB that provides inherent isolation between customers.</t>
+  </si>
+  <si>
+    <t>AWS Account ID, ARNs of integrated resources, Email (optional), Name(optional). No sensitive customer data.</t>
+  </si>
+  <si>
+    <t>Access to our system is provisioned via AWS Marketplace subscriptions, and we require no data other than the opaque subscription identifier and AWS account ID to provide access. 
+Customers may choose to share additional contact information (email, phone) to facilitate support and other inquiries.
+Once access is available, customers may configure our system which may include entering "allowed IPs" (internet protocol addresses), and ARNs of resources for integration in their AWS environment.</t>
+  </si>
+  <si>
+    <t>No, employees do not have access to unencrypted customer data.
+How We Control Access:
+- No customer PII stored: Proxylity does not store customer PII or persist customer packet content
+- Encryption everywhere: All data encrypted in transit (TLS 1.2+) and at rest (AWS KMS)
+- Least privilege access: Role-based permissions with business justification required
+- MFA mandatory: Required for all AWS, GitHub, and administrative access
+- Quarterly access reviews: IAM permissions audited; unused accounts removed
+- All access logged: Privileged access uses secure protocols and is monitored</t>
+  </si>
+  <si>
+    <t>N/A.</t>
+  </si>
+  <si>
+    <t>Yes, customer data is classified according to legal/regulatory requirements, business value, and sensitivity.
+Classification Framework:
+Proxylity classifies all information into three categories: Public (approved for public distribution with no restrictions), Internal (general operations and non-public corporate information with internal access only), and Confidential (platform configuration data, credentials, operational security, and architecture details limited to authorized personnel and encrypted in transit and at rest).
+Customer Data Classification:
+Customer configuration data is classified as Confidential and is handled accordingly. Proxylity does not store customer PII and does not retain customer traffic or packet data. Access to customer configuration data is restricted to authorized personnel only and is protected by encryption using TLS 1.2+ in transit and AWS KMS at rest.
+Evidence Document:
+Proxylity-Information Security Policy.md (Section 3: Information Classification)</t>
+  </si>
+  <si>
+    <t>We update dependencies, runtimes and EC2 systems on a frequent basis using a combination of automatic refreshes (spot instances) and manually triggered instance refreshes to ensure all instances are refreshed at least weekly.</t>
+  </si>
+  <si>
+    <t>Devices provided to employees are replaced rather than repaired, and disposed of securely in accordance with policies.</t>
+  </si>
+  <si>
+    <t>Logs are retained for either 89 days or 3 years depending on the source.</t>
+  </si>
+  <si>
+    <t>No access to customer data is provided by default.  All employee access to our systems is logged which would identify such access if it were to take place.</t>
+  </si>
+  <si>
+    <t>Visitor logs are maintained for 3 years.</t>
+  </si>
+  <si>
+    <t>Quarterly.</t>
+  </si>
+  <si>
+    <t>Yes, risk assessments are performed for all third-party vendors.
+Assessment Frequency:
+Vendors are assessed based on their criticality level:
+- Critical vendors (e.g., AWS, GitHub): Assessed annually and upon any significant changes
+- Important vendors (e.g., email providers, monitoring tools): Assessed annually
+- Standard vendors (e.g., office software, documentation tools): Assessed upon onboarding and every 2 years thereafter
+Assessment Process:
+All new vendors undergo a structured assessment before engagement that includes identifying the business need, classifying vendor criticality and data access level, evaluating security practices, documenting findings and risks, and obtaining approval from the Vendor Risk Approver. Vendors with access to customer data require enhanced assessment and contractual data protection requirements.</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity has a formal process for management to understand, accept risks, and approve action plans with timelines. The process includes metrics for each risk.
+Risk Metrics:
+Each identified risk is scored using an Impact × Likelihood matrix that provides:
+- Impact scoring: Catastrophic, Major, Moderate, or Minor — with specific definitions relevant to SaaS operations (e.g., service outage, data breach, customer impact)
+- Likelihood scoring: Almost Certain (&gt;75%), Likely (50-75%), Possible (25-50%), Remote (5-25%), or Very Remote (&lt;5%)
+- Risk level: Critical, High, Medium, or Low — determined by combining impact and likelihood scores
+Management Approval &amp; Timelines:
+- Critical risks: Immediate action required; CEO/Founder approval required
+- High risks: Address within 30 days; CEO/Founder approval required
+- Medium risks: Plan mitigation within 90 days; monitoring required
+- Low risks: Monitor and document; no immediate action required
+Risk Treatment &amp; Acceptance:
+Management selects a treatment strategy (Reduce, Accept, Transfer, or Avoid) for each risk. Risk acceptance requires documented business justification explaining why the risk is acceptable given current resources, priorities, and constraints. All decisions are recorded in the Risk Register with timestamps and approval signatures.</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity reports key activities.
+Key activities are tracked across security, availability, processing integrity, vendor risk, and employee awareness. These include access management reviews, credential rotation, code reviews, multi-region deployment testing, backup validation, and incident response testing.</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity has plans for recovery after an incident.
+Recovery Plan Details:
+Recovery Objectives:
+- RTO (Recovery Time Objective): 2 hours for full system rebuild in worst-case scenario
+- RPO (Recovery Point Objective): 0 hours (no data loss) for customer configuration data
+- Availability Target: 99.9% uptime
+Platform Resilience:
+- Multi-region deployment across three AWS regions (us-west-2, us-east-1, eu-west-1)
+- Architecture tolerates single-region failure without service interruption
+- Automated failover capabilities with continuous testing
+Backup &amp; Recovery:
+- Customer configuration data replicated across all three regions
+- DynamoDB point-in-time recovery enabled
+- Internal systems backed up with 30-day retention
+- Recovery procedures documented and tested quarterly
+Incident Response Integration:
+- Formal Incident Response Plan covering detection, containment, eradication, and recovery
+- Post-incident review and corrective action procedures
+- Disaster recovery plans documented for worst-case scenarios
+- Annual tabletop exercises and training</t>
+  </si>
+  <si>
+    <t>Yes, within the scope of their use and not to the detriment of other customers.</t>
+  </si>
+  <si>
+    <t>No, Proxylity does not currently publish a security bulletin.
+However, Proxylity does maintain internal vulnerability management practices including:
+- CVE scans and dependency vulnerability reports reviewed regularly
+- Dependencies updated frequently (more than monthly)
+- Industry threat landscape monitoring
+- AWS Health Dashboard and security advisory monitoring
+Customer notification for security issues is handled through direct communication: customers are notified within 48 hours after a vulnerability affecting them is resolved.</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity has comprehensive logging enabled.
+Types of Events Logged:
+- CloudWatch Logs: System performance, errors, API calls
+- VPC Flow Logs: Network traffic metadata
+- Application Logs: Error traces, deployment logs, system events
+- CloudTrail Logs: AWS API calls and account activity
+- Access Logs: MFA events, login attempts, privileged access activity
+- Configuration Change Logs: Customer-initiated configuration changes
+Retention Periods:
+- System operation logs (CloudWatch, VPC Flow, Application): 89 days
+- Configuration change audit logs: 3 years
+- Access control logs: 1 year</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity has a process to identify and detect third-party vendor issues.
+- All vendors assessed for security practices before engagement and periodically thereafter
+- Critical vendors (AWS, GitHub) monitored and reassessed annually
+- Vendors do not hold customer data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># **Proxylity LLC — Information Security Policy**
+**Version:** 1.0  
+**Approved By:** Lee Harding  
+**Last Updated:** 2025-12-04  
+---
+## **1. Purpose**
+The purpose of this policy is to define Proxylity LLC’s approach to information security; to protect the confidentiality, integrity, and availability of corporate and customer data; and to support business continuity, risk management, and regulatory compliance.
+---
+## **2. Scope**
+This policy applies to:
+- All Proxylity employees, contractors, and temporary workers.
+- All systems, cloud infrastructure, source code, deployment pipelines, and configuration data owned or managed by Proxylity.
+- All third-party services used as part of business operations or customer delivery.
+Proxylity does **not store customer PII**, nor persist customer-generated packet content passing through the UDP Gateway platform. Customer configuration data is collected only to enable service delivery and is treated as **confidential**.
+---
+## **3. Information Classification**
+Proxylity classifies information into three categories:
+| Classification | Description | Handling |
+|---------------|-------------|----------|
+| **Public** | Approved for public distribution | No restrictions |
+| **Internal** | General operations, non-public corporate information | Internal access only |
+| **Confidential** | Platform configuration data, credentials, operational security, architecture details | Limited to authorized personnel only; encrypted in transit and at rest |
+Proxylity **does not store customer PII** and **does not retain customer traffic data**.
+---
+## **4. Access Control**
+Proxylity implements access controls to ensure only authorized personnel can access systems and data.
+**Principles:**
+- Access is granted on the principle of **Least Privilege**
+- All access requires business justification and appropriate approval
+- Access is role-based, with permissions aligned to job responsibilities
+**Authentication:**
+- All systems require **strong authentication**
+- Multi-factor authentication (MFA) is mandatory for all accounts where supported
+- MFA is required for AWS console access, GitHub, and administrative tools
+- Service accounts use IAM roles with least-privilege permissions
+**Access Reviews:**
+- IAM permissions and access rights are reviewed quarterly
+- Access logs (MFA, login attempts) are retained and available for audit
+- Unused accounts and permissions are identified and removed
+**Access Revocation:**
+- Access is revoked immediately upon role change or termination
+- Process includes revocation of AWS IAM, GitHub, and all corporate systems
+- Return of company assets is verified upon termination
+**Privileged Access:**
+- Administrative access requires dedicated privileged accounts
+- Privileged access uses secure protocols and is logged
+- Root account access is restricted and protected with MFA
+---
+## **5. Cloud Security**
+Proxylity operates exclusively in AWS and relies on AWS-native security capabilities:
+- Network segregation through VPC isolation.
+- Encryption in transit via TLS 1.2+.
+- Encryption at rest using KMS-managed keys.
+- IAM role-based permissions for all systems and automation.
+- Logging and monitoring of cloud activities where applicable.
+**No customer packet data is stored** within Proxylity systems.
+---
+## **6. Software Development Security**
+Proxylity maintains secure software development practices to protect platform integrity and prevent vulnerabilities.
+**Infrastructure as Code:**
+- All infrastructure and system configurations are maintained as Infrastructure as Code (IaC) in CloudFormation templates
+- Configuration changes are version-controlled in Git with full history
+- Changes require review and approval before merge
+**Change Management:**
+- CI/CD pipelines enforce controlled deployments
+- All code changes require review before merging
+- Deployment scripts in each repository enable local deployment capability if CI/CD is unavailable
+- Configuration changes are logged and retained for three years
+**Security Configuration:**
+- Security configurations are automatically evaluated via AWS Config and Security Hub
+- Manual security inspections and reviews are performed at least quarterly
+- Security and hardening standards are maintained and documented
+**Secrets Management:**
+- Secrets are managed through AWS Secrets Manager and Parameter Store
+- No secrets are stored in source code repositories
+- Credentials and secrets are rotated according to defined schedules
+**Dependency Management:**
+- Third-party code and dependencies are evaluated for licensing and security risk
+- Dependencies are updated frequently (more often than monthly)
+- CVE scans and dependency vulnerability reports are reviewed regularly
+**Development Environment:**
+- No customer data is used in development environments
+- Development and production environments are logically separated
+---
+## **7. Incident Response**
+Proxylity maintains a formal Incident Response Plan to detect, respond to, and recover from security incidents.
+**Incident Lifecycle:**
+- Detection and identification through monitoring, alerts, and staff reporting
+- Classification and prioritization (Low, Medium, High, Critical)
+- Containment, eradication, and recovery procedures
+- Post-incident review and corrective action
+**Monitoring and Detection:**
+- CloudWatch monitoring and alerting for system health and anomalies
+- Log monitoring for unusual or suspicious activities
+- Comprehensive logging enabled to support incident investigation
+- Logs retained for sufficient time to investigate incidents (89 days minimum)
+**Notification:**
+- Internal escalation to executive team for critical incidents
+- Customer notification within 48 hours after vulnerability is resolved (unless customer engagement is required for remediation)
+- Affected parties notified where required by law or contract
+- Customers may report security incidents via documented disclosure process on public website
+**Incident Resources:**
+- Relevant logs and incident reports available to affected customers within scope of their use
+- Disaster recovery plans documented for worst-case scenarios
+**Training and Testing:**
+- All employees complete annual security awareness and incident response training
+- Tabletop exercises performed annually or after significant system changes
+For detailed procedures, see **Proxylity LLC — Incident Response Plan**.
+---
+## **8. Data Retention and Deletion**
+Proxylity implements a comprehensive data retention and deletion policy to minimize security exposure and ensure compliance with legal and regulatory obligations.
+**Retention Periods:**
+- **Customer Configuration Data:** Retained until account termination, then permanently deleted
+- **Configuration Change Audit Logs:** Retained for three (3) years
+- **System Operation Logs:** Retained for eighty-nine (89) days
+- **Backup Data:** Deleted according to the same timeline as live data
+- **CloudTrail Logs:** Retained indefinitely (AWS default for compliance)
+**Deletion Procedures:**
+- All deletions are performed using AWS-native mechanisms
+- Cross-region replication copies are deleted simultaneously (us-west-2, us-east-1, eu-west-1)
+- Deletion is logged and verified through CloudTrail
+- Data subject requests are processed within thirty (30) days
+- Legal hold procedures are in place for litigation or government investigations
+For detailed procedures, see **Proxylity LLC — Data Retention and Deletion Policy**.
+---
+## **9. Vendor and Third-Party Risk**
+Proxylity manages third-party vendor relationships to ensure they do not compromise security, availability, or integrity of customer data.
+- Vendors are assessed for security practices prior to use and periodically thereafter.
+- No third-party vendors have access to customer data (other than AWS as infrastructure provider).
+- Access to Proxylity systems by vendors is monitored and restricted to the minimum necessary.
+- Critical dependencies (AWS, GitHub) are identified with documented risk mitigations.
+- AWS Marketplace serves as merchant of record for billing activities, transferring payment processing risk.
+- Vendors with customer data access must notify Proxylity within 24 hours of any security incident.
+For detailed vendor assessment procedures and current vendor inventory, see **Proxylity LLC — Vendor and Third-Party Risk Management Policy**.
+---
+## **10. Business Continuity &amp; Resilience**
+Proxylity maintains business continuity capabilities to ensure service availability and rapid recovery from disruptions.
+**Platform Resilience:**
+- Multi-region deployment across three AWS regions (us-west-2, us-east-1, eu-west-1)
+- Architecture designed to tolerate single-region failure without service interruption
+- Customer workload distributed across availability zones within each region
+- Automated failover capabilities with continuous testing through deployment processes
+**Recovery Objectives:**
+- **Recovery Time Objective (RTO):** 2 hours for full system rebuild in worst-case scenario
+- **Recovery Point Objective (RPO):** 0 hours (no data loss) for customer configuration data
+- **Availability Target:** 99.9% uptime (≤44 minutes downtime per month)
+**Backup and Recovery:**
+- Customer configuration data replicated across three AWS regions
+- DynamoDB point-in-time recovery enabled
+- Internal corporate systems backed up with 30-day retention
+- Recovery procedures documented and tested at least quarterly
+**Continuity Testing:**
+- Failover exercised continuously through automated deployment processes
+- Forced failover testing performed approximately monthly for specific scenarios
+- Loss of access and system recovery testing performed at least quarterly
+For detailed impact analysis and recovery priorities, see **Proxylity LLC — Business Impact Assessment**.
+---
+## **11. Compliance**
+Proxylity intends to pursue independent compliance attestations (e.g., SOC 2).  
+Proxylity minimizes collection of personal data. Customer contact information voluntarily provided for support purposes is handled in accordance with applicable privacy regulations (GDPR, CCPA). Customer configuration data does not include personal data.
+All compliance requirements mandated by contract or law will be followed.
+---
+## **12. Policy Review**
+This policy is reviewed at least annually and upon significant change in:
+- Business operations
+- Regulatory obligation
+- Platform architecture or risk profile
+---
+## **13. Employee Responsibility**
+All personnel must:
+- Understand and follow this policy.
+- Complete required security training.
+- Report suspected security incidents immediately.
+Failure to comply may result in disciplinary action up to termination.
+---
+**Approved By:** Lee Harding
+**Date:** 2025-12-04
+</t>
+  </si>
+  <si>
+    <t>All infrastructure and system configurations are maintained as Infrastructure as Code in CloudFormation templates under version control.</t>
   </si>
 </sst>
 </file>
@@ -1911,12 +2543,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2223,9 +2855,9 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,14 +2872,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -2286,7 +2918,9 @@
       <c r="E3" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2305,7 +2939,7 @@
         <v>507</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2325,10 +2959,10 @@
         <v>507</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2344,8 +2978,8 @@
       <c r="E6" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>510</v>
+      <c r="F6" s="8" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2365,7 +2999,7 @@
         <v>507</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2385,7 +3019,7 @@
         <v>507</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2405,7 +3039,7 @@
         <v>506</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2425,7 +3059,7 @@
         <v>506</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2445,7 +3079,7 @@
         <v>507</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2465,7 +3099,7 @@
         <v>507</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2485,7 +3119,7 @@
         <v>506</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2505,7 +3139,7 @@
         <v>507</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2525,7 +3159,7 @@
         <v>507</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2545,7 +3179,7 @@
         <v>507</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2565,7 +3199,7 @@
         <v>507</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2585,7 +3219,7 @@
         <v>507</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2605,7 +3239,7 @@
         <v>507</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2625,7 +3259,7 @@
         <v>507</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2644,7 +3278,9 @@
       <c r="E21" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2717,7 +3353,7 @@
         <v>506</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2737,7 +3373,7 @@
         <v>507</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2757,7 +3393,7 @@
         <v>507</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2795,7 +3431,7 @@
         <v>507</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2833,7 +3469,7 @@
         <v>506</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2853,7 +3489,7 @@
         <v>507</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2873,7 +3509,7 @@
         <v>507</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2893,7 +3529,7 @@
         <v>506</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2913,7 +3549,7 @@
         <v>507</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2933,7 +3569,7 @@
         <v>507</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2953,7 +3589,7 @@
         <v>507</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2973,7 +3609,7 @@
         <v>507</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2993,7 +3629,7 @@
         <v>506</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3011,7 +3647,7 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3029,10 +3665,10 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>138</v>
       </c>
@@ -3048,11 +3684,11 @@
       <c r="E42" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F42" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>142</v>
       </c>
@@ -3068,11 +3704,11 @@
       <c r="E43" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F43" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>446</v>
       </c>
@@ -3088,8 +3724,8 @@
       <c r="E44" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>558</v>
+      <c r="F44" s="8" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3109,7 +3745,7 @@
         <v>507</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -3128,8 +3764,8 @@
       <c r="E46" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>559</v>
+      <c r="F46" s="8" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3149,7 +3785,7 @@
         <v>507</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3169,7 +3805,7 @@
         <v>507</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3189,7 +3825,7 @@
         <v>506</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3209,10 +3845,10 @@
         <v>507</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>168</v>
       </c>
@@ -3228,8 +3864,8 @@
       <c r="E51" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>546</v>
+      <c r="F51" s="8" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3249,7 +3885,7 @@
         <v>507</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3269,7 +3905,7 @@
         <v>507</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3289,7 +3925,7 @@
         <v>507</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3309,7 +3945,7 @@
         <v>506</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3329,7 +3965,7 @@
         <v>507</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3349,7 +3985,7 @@
         <v>506</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3369,7 +4005,7 @@
         <v>507</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3389,10 +4025,10 @@
         <v>507</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>461</v>
       </c>
@@ -3406,10 +4042,10 @@
         <v>459</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>554</v>
+        <v>588</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3426,13 +4062,13 @@
         <v>460</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>463</v>
       </c>
@@ -3448,7 +4084,9 @@
       <c r="E62" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="F62" s="5"/>
+      <c r="F62" s="8" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3482,10 +4120,10 @@
         <v>208</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3506,7 +4144,7 @@
       </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>212</v>
       </c>
@@ -3522,8 +4160,8 @@
       <c r="E66" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>563</v>
+      <c r="F66" s="8" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3561,7 +4199,7 @@
         <v>507</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3581,7 +4219,7 @@
         <v>507</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3619,7 +4257,7 @@
         <v>507</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3639,7 +4277,7 @@
         <v>507</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3659,7 +4297,7 @@
         <v>507</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3676,13 +4314,13 @@
         <v>240</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>473</v>
       </c>
@@ -3698,8 +4336,8 @@
       <c r="E75" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>570</v>
+      <c r="F75" s="8" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3719,7 +4357,7 @@
         <v>507</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3736,10 +4374,10 @@
         <v>479</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3756,10 +4394,10 @@
         <v>480</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3779,7 +4417,7 @@
         <v>507</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3796,10 +4434,10 @@
         <v>256</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3819,7 +4457,7 @@
         <v>507</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3839,7 +4477,7 @@
         <v>507</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3859,7 +4497,7 @@
         <v>506</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3932,7 +4570,9 @@
       <c r="E87" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F87" s="5"/>
+      <c r="F87" s="5" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -3969,7 +4609,7 @@
         <v>506</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3989,7 +4629,7 @@
         <v>507</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4152,7 +4792,9 @@
       <c r="E99" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
@@ -4206,7 +4848,9 @@
       <c r="E102" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F102" s="5"/>
+      <c r="F102" s="5" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -4258,7 +4902,7 @@
         <v>493</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F105" s="5"/>
     </row>
@@ -4315,10 +4959,10 @@
         <v>507</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>494</v>
       </c>
@@ -4334,11 +4978,11 @@
       <c r="E109" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F109" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>360</v>
       </c>
@@ -4354,9 +4998,11 @@
       <c r="E110" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F110" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>495</v>
       </c>
@@ -4372,8 +5018,8 @@
       <c r="E111" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>586</v>
+      <c r="F111" s="8" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4429,10 +5075,10 @@
         <v>507</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>377</v>
       </c>
@@ -4448,11 +5094,11 @@
       <c r="E115" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F115" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>381</v>
       </c>
@@ -4468,8 +5114,8 @@
       <c r="E116" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>597</v>
+      <c r="F116" s="8" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4489,10 +5135,10 @@
         <v>507</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>499</v>
       </c>
@@ -4508,9 +5154,11 @@
       <c r="E118" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F118" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>391</v>
       </c>
@@ -4526,7 +5174,9 @@
       <c r="E119" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F119" s="5"/>
+      <c r="F119" s="8" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
@@ -4545,10 +5195,10 @@
         <v>507</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>399</v>
       </c>
@@ -4564,8 +5214,8 @@
       <c r="E121" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F121" s="5" t="s">
-        <v>594</v>
+      <c r="F121" s="8" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4582,13 +5232,13 @@
         <v>404</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>405</v>
       </c>
@@ -4604,7 +5254,9 @@
       <c r="E123" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F123" s="5"/>
+      <c r="F123" s="8" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -4623,7 +5275,7 @@
         <v>507</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4643,7 +5295,7 @@
         <v>507</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4663,7 +5315,7 @@
         <v>507</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4683,7 +5335,7 @@
         <v>507</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -4697,6 +5349,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questionnaires/AWSVendorInsightsSecuritySelfAssessment_2022-11-30.xlsx
+++ b/questionnaires/AWSVendorInsightsSecuritySelfAssessment_2022-11-30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeha\source\proxylity\policies-and-procedures\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF484CC1-E4D0-42F5-B155-61E6361861DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D15E74D-F405-4431-99CB-1CA8E0E23112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="30160" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="608">
   <si>
     <t>Vendor Insights Self Assessment V2022-11-30</t>
   </si>
@@ -1576,18 +1576,12 @@
     <t>Actions are logged and retained for 89 days or 3 years depending on the scope and content.</t>
   </si>
   <si>
-    <t>Systems EC2 are not image based and are dynamically configured from AWS base AMIs when provisioned, and application environments added via autoscaling and codedeploy. Customer configuration data is stored in DDB and replicated to 2+ additional regions via Global Tables.</t>
-  </si>
-  <si>
     <t>All code reviews include security consideration.</t>
   </si>
   <si>
     <t>Penetration testing is internally performed and the results have not been retained.  It would be possible to run them again to provide the current results.</t>
   </si>
   <si>
-    <t>No persistent instances or containers are used in the application to be scanned.  Instances are frequently re-built from base AMIs (reserved and spot).</t>
-  </si>
-  <si>
     <t>Application logs are collected in CloudWatch and retained for 89 days or three years depending on scope and content. Reviews of application logs are performed in response to releases where appropriate.</t>
   </si>
   <si>
@@ -1612,9 +1606,6 @@
     <t>All changes are logged in source control, review and deployment. Logs are retained for 89 days or three years depending on scope and content.</t>
   </si>
   <si>
-    <t>Our rate of deployment is extremely fast and would create unuseful "noise" to notify customers of each potentially impactful change. In the event of a known impacting change (deprecation without backward compatability) we notify customers at least 30 days in advance.</t>
-  </si>
-  <si>
     <t>We have our Foundational review via our AWS Partnership process/status. No other certifications/audits are complete at this point.</t>
   </si>
   <si>
@@ -1645,16 +1636,10 @@
     <t>The specific purpose of declaring "scheduled maintenance" is to make customers aware of potential downtime.  No such scheduled maintenance has occurred in our first year of operation but we reserve the right to declare it when/if needed to maintain system health.</t>
   </si>
   <si>
-    <t>We don't currently have such a portal, and would make use of in-application notifications if needed to communicate any such issue.</t>
-  </si>
-  <si>
     <t>We specify an RTO of 2 hours and have processes defined to achieve a full system rebuild in such a timeframe if necessary.</t>
   </si>
   <si>
     <t>The general RPO is 0 hours (no data loss) with caveats for customer induced data loss (self delete).</t>
-  </si>
-  <si>
-    <t>Currently we store data in the United States in `us-west-2`, `us-east-1` and Ireland in `eu-west-1`.</t>
   </si>
   <si>
     <t>The BIA evaluates functional, technical, and dependency-related impacts associated with service disruption across:
@@ -1699,9 +1684,6 @@
   </si>
   <si>
     <t>We use Windows Defender on employee laptops, but don't use endpoint protection on EC2s because of their highly transitory nature.</t>
-  </si>
-  <si>
-    <t>No direct access to our system is provided; it's all via least-priviledge IAM roles used with required TFA.</t>
   </si>
   <si>
     <t>Risk assessments are performed at least quarterly.</t>
@@ -2090,55 +2072,6 @@
 5. Annual Policy Review - All policies are reviewed at least annually and upon significant changes in regulatory obligations.</t>
   </si>
   <si>
-    <t>Yes, Proxylity has a formal process to handle exceptions or deviations from compliance requirements.
-Details:
-Risk Acceptance Process - Exceptions and deviations are handled through our documented risk acceptance framework:
-1. Formal Approval Authority by Risk Level:
-CRITICAL risks: CEO/Founder approval required; documented in Risk Register
-HIGH risks: CEO/Founder approval required; documented in Risk Register
-MEDIUM risks: Risk Owner recommends; documented in Risk Register
-LOW risks: Risk Owner documents; no approval required
-2. Required Documentation:
-Business justification explaining why the exception is acceptable given current resources, priorities, and constraints
-Risk scoring (Impact × Likelihood assessment)
-Documented in Risk Register with timestamp and approval
-3. Treatment Options for Deviations:
-ACCEPT: Acknowledge the risk and consciously proceed without mitigation (requires documented business justification)
-REDUCE: Implement compensating controls to decrease likelihood or impact
-TRANSFER: Shift risk to third party through contracts or insurance
-AVOID: Change plans to eliminate the risk entirely (requires CEO approval as it impacts business strategy)
-4. Ongoing Monitoring:
-Accepted exceptions are tracked in the Risk Register
-Quarterly reviews reassess whether acceptance remains appropriate
-Changes in risk environment may trigger re-evaluation</t>
-  </si>
-  <si>
-    <t>Yes, Proxylity has developed and maintains formal procedures for business continuity.
-Details:
-1. Multi-Region Platform Resilience:
-Deployed across three AWS regions (us-west-2, us-east-1, eu-west-1)
-Architecture designed to tolerate single-region failure without service interruption
-Customer workloads distributed across availability zones within each region
-Automated failover capabilities
-2. Defined Recovery Objectives:
-Recovery Time Objective (RTO): 2 hours for full system rebuild in worst-case scenario
-Recovery Point Objective (RPO): 0 hours (no data loss) for customer configuration data
-Availability Target: 99.9% uptime (≤44 minutes downtime per month)
-3. Backup and Recovery Procedures:
-Customer configuration data replicated across three AWS regions
-DynamoDB point-in-time recovery enabled
-Internal corporate systems backed up with 30-day retention
-Recovery procedures documented and tested at least quarterly
-4. Continuity Testing:
-Failover exercised continuously through automated deployment processes
-Forced failover testing performed approximately monthly for specific scenarios
-Loss of access and system recovery testing performed at least quarterly
-5. Incident Response Integration:
-Formal Incident Response Plan with detection, containment, and recovery procedures
-Disaster recovery plans documented for worst-case scenarios
-Annual tabletop exercises and training</t>
-  </si>
-  <si>
     <t>Recovery testing is performed regualarly (at least quarterly).</t>
   </si>
   <si>
@@ -2176,9 +2109,6 @@
   </si>
   <si>
     <t>We update dependencies, runtimes and EC2 systems on a frequent basis using a combination of automatic refreshes (spot instances) and manually triggered instance refreshes to ensure all instances are refreshed at least weekly.</t>
-  </si>
-  <si>
-    <t>Devices provided to employees are replaced rather than repaired, and disposed of securely in accordance with policies.</t>
   </si>
   <si>
     <t>Logs are retained for either 89 days or 3 years depending on the source.</t>
@@ -2245,15 +2175,6 @@
   </si>
   <si>
     <t>Yes, within the scope of their use and not to the detriment of other customers.</t>
-  </si>
-  <si>
-    <t>No, Proxylity does not currently publish a security bulletin.
-However, Proxylity does maintain internal vulnerability management practices including:
-- CVE scans and dependency vulnerability reports reviewed regularly
-- Dependencies updated frequently (more than monthly)
-- Industry threat landscape monitoring
-- AWS Health Dashboard and security advisory monitoring
-Customer notification for security issues is handled through direct communication: customers are notified within 48 hours after a vulnerability affecting them is resolved.</t>
   </si>
   <si>
     <t>Yes, Proxylity has comprehensive logging enabled.
@@ -2457,6 +2378,76 @@
   </si>
   <si>
     <t>All infrastructure and system configurations are maintained as Infrastructure as Code in CloudFormation templates under version control.</t>
+  </si>
+  <si>
+    <t>Systems EC2 are not image based and are dynamically configured from AWS base AMIs when provisioned, and application environments added via autoscaling and codedeploy. Instances are stateless, storing no customer information. Customer configuration data is stored in DDB and replicated to 2+ additional regions via Global Tables.</t>
+  </si>
+  <si>
+    <t>Our rate of deployment is extremely fast (multiple deployments per day). Customers are notified of each known impactful change. In the event of a known impactful change (deprecation without backward compatability) we notify customers at least 30 days in advance.</t>
+  </si>
+  <si>
+    <t>Devices provided to employees are maintained and disposed of securely in accordance with policies.</t>
+  </si>
+  <si>
+    <t>No access to our production system is provided by default.</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity has a formal process to handle exceptions or deviations from compliance requirements.
+Details:
+Risk Acceptance Process - Exceptions and deviations are handled through our documented risk acceptance framework:
+1. Formal Approval Authority by Risk Level:
+- CRITICAL risks: CEO/Founder approval required; documented in Risk Register
+- HIGH risks: CEO/Founder approval required; documented in Risk Register
+- MEDIUM risks: Risk Owner recommends; documented in Risk Register
+- LOW risks: Risk Owner documents; no approval required
+2. Required Documentation:
+- Business justification explaining why the exception is acceptable given current resources, priorities, and constraints
+- Risk scoring (Impact × Likelihood assessment)
+- Documented in Risk Register with timestamp and approval
+3. Treatment Options for Deviations:
+- ACCEPT: Acknowledge the risk and consciously proceed without mitigation (requires documented business justification)
+- REDUCE: Implement compensating controls to decrease likelihood or impact
+- TRANSFER: Shift risk to third party through contracts or insurance
+- AVOID: Change plans to eliminate the risk entirely (requires CEO approval as it impacts business strategy)
+4. Ongoing Monitoring:
+- Accepted exceptions are tracked in the Risk Register
+- Quarterly reviews reassess whether acceptance remains appropriate
+- Changes in risk environment may trigger re-evaluation</t>
+  </si>
+  <si>
+    <t>Yes, Proxylity has developed and maintains formal procedures for business continuity.
+Details:
+1. Multi-Region Platform Resilience:
+- Deployed across three AWS regions
+- Architecture designed to tolerate single-region failure without service interruption
+- Customer workloads distributed across availability zones within each region
+- Automated failover capabilities
+2. Defined Recovery Objectives:
+- Recovery Time Objective (RTO): 2 hours for full system rebuild in worst-case scenario
+- Recovery Point Objective (RPO): 0 hours (no data loss) for customer configuration data
+- Availability Target: 99.9% uptime (≤44 minutes downtime per month)
+3. Backup and Recovery Procedures:
+- Customer configuration data replicated across three AWS regions
+- DynamoDB point-in-time recovery enabled
+- Internal corporate systems backed up with 30-day retention
+- Recovery procedures documented and tested at least quarterly
+4. Continuity Testing:
+- Failover exercised continuously through automated deployment processes
+- Forced failover testing performed approximately monthly for specific scenarios
+- Loss of access and system recovery testing performed at least quarterly
+5. Incident Response Integration:
+- Formal Incident Response Plan with detection, containment, and recovery procedures
+- Disaster recovery plans documented for worst-case scenarios
+- Annual tabletop exercises and training</t>
+  </si>
+  <si>
+    <t>GuardDuty Malware Protection for EC2. Reports may be provided by request.</t>
+  </si>
+  <si>
+    <t>Security notices are published in according with out policies to https://status.proxylity.com</t>
+  </si>
+  <si>
+    <t>We provide notice for planned downtime, and status updates for unplanned downtime at https://status.proxylity.com.  During incidents updates are provided every 30 minutes until resolved.</t>
   </si>
 </sst>
 </file>
@@ -2855,9 +2846,9 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2919,7 +2910,7 @@
         <v>506</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2939,7 +2930,7 @@
         <v>507</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2959,7 +2950,7 @@
         <v>507</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -2979,7 +2970,7 @@
         <v>507</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2999,7 +2990,7 @@
         <v>507</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3019,7 +3010,7 @@
         <v>507</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3059,7 +3050,7 @@
         <v>506</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3116,7 +3107,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>511</v>
@@ -3199,7 +3190,7 @@
         <v>507</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3219,7 +3210,7 @@
         <v>507</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3279,7 +3270,7 @@
         <v>507</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3350,10 +3341,10 @@
         <v>83</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3373,7 +3364,7 @@
         <v>507</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3393,7 +3384,7 @@
         <v>507</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3431,7 +3422,7 @@
         <v>507</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3466,10 +3457,10 @@
         <v>107</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3489,7 +3480,7 @@
         <v>507</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3509,7 +3500,7 @@
         <v>507</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3529,7 +3520,7 @@
         <v>506</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3549,7 +3540,7 @@
         <v>507</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3569,7 +3560,7 @@
         <v>507</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3589,7 +3580,7 @@
         <v>507</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3609,7 +3600,7 @@
         <v>507</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3626,10 +3617,10 @@
         <v>134</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>529</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3647,7 +3638,7 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3665,7 +3656,7 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -3685,7 +3676,7 @@
         <v>507</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -3705,7 +3696,7 @@
         <v>507</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -3722,10 +3713,10 @@
         <v>148</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3745,7 +3736,7 @@
         <v>507</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -3765,7 +3756,7 @@
         <v>507</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3785,7 +3776,7 @@
         <v>507</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3805,7 +3796,7 @@
         <v>507</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3825,7 +3816,7 @@
         <v>506</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3845,7 +3836,7 @@
         <v>507</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -3865,7 +3856,7 @@
         <v>507</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3885,7 +3876,7 @@
         <v>507</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3905,7 +3896,7 @@
         <v>507</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3925,7 +3916,7 @@
         <v>507</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3945,7 +3936,7 @@
         <v>506</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3965,7 +3956,7 @@
         <v>507</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3982,10 +3973,10 @@
         <v>189</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4005,7 +3996,7 @@
         <v>507</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4025,7 +4016,7 @@
         <v>507</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -4042,10 +4033,10 @@
         <v>459</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4062,11 +4053,9 @@
         <v>460</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>543</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -4085,7 +4074,7 @@
         <v>506</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4123,7 +4112,7 @@
         <v>507</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4161,7 +4150,7 @@
         <v>507</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4199,7 +4188,7 @@
         <v>507</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4219,7 +4208,7 @@
         <v>507</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4257,7 +4246,7 @@
         <v>507</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4277,7 +4266,7 @@
         <v>507</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4297,7 +4286,7 @@
         <v>507</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -4314,10 +4303,10 @@
         <v>240</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="345" x14ac:dyDescent="0.25">
@@ -4337,7 +4326,7 @@
         <v>507</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4357,7 +4346,7 @@
         <v>507</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4374,10 +4363,10 @@
         <v>479</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4394,10 +4383,10 @@
         <v>480</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4417,7 +4406,7 @@
         <v>507</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4437,7 +4426,7 @@
         <v>507</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4457,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4477,7 +4466,7 @@
         <v>507</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4494,10 +4483,10 @@
         <v>267</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4571,7 +4560,7 @@
         <v>507</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4606,10 +4595,10 @@
         <v>288</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>557</v>
+        <v>602</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4629,7 +4618,7 @@
         <v>507</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4793,7 +4782,7 @@
         <v>507</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4849,7 +4838,7 @@
         <v>507</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4902,7 +4891,7 @@
         <v>493</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F105" s="5"/>
     </row>
@@ -4959,7 +4948,7 @@
         <v>507</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -4979,7 +4968,7 @@
         <v>507</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -4999,7 +4988,7 @@
         <v>507</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -5019,7 +5008,7 @@
         <v>507</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5075,7 +5064,7 @@
         <v>507</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -5095,7 +5084,7 @@
         <v>507</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -5115,7 +5104,7 @@
         <v>507</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5135,10 +5124,10 @@
         <v>507</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>499</v>
       </c>
@@ -5152,10 +5141,10 @@
         <v>390</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -5175,7 +5164,7 @@
         <v>507</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5195,7 +5184,7 @@
         <v>507</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -5215,7 +5204,7 @@
         <v>507</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5232,10 +5221,10 @@
         <v>404</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -5255,7 +5244,7 @@
         <v>507</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5275,7 +5264,7 @@
         <v>507</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5295,7 +5284,7 @@
         <v>507</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5315,7 +5304,7 @@
         <v>507</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5335,7 +5324,7 @@
         <v>507</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
